--- a/documents/CRC and Diagram/CRC Cards.xlsx
+++ b/documents/CRC and Diagram/CRC Cards.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scopes and Patterns" sheetId="1" r:id="rId1"/>
     <sheet name="Cards" sheetId="2" r:id="rId2"/>
+    <sheet name="Examples" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Cards!$A$1:$I$802</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="204">
   <si>
     <t>Global</t>
   </si>
@@ -273,9 +274,6 @@
     <t>Know LTL output</t>
   </si>
   <si>
-    <t>Template Mediator</t>
-  </si>
-  <si>
     <t>Ask user for information</t>
   </si>
   <si>
@@ -288,9 +286,6 @@
     <t>LTL Template</t>
   </si>
   <si>
-    <t>Template Mediator (1)</t>
-  </si>
-  <si>
     <t>Replace CPs in Template</t>
   </si>
   <si>
@@ -541,6 +536,111 @@
   </si>
   <si>
     <t>Return LTL Template</t>
+  </si>
+  <si>
+    <t>LTL Template (1)</t>
+  </si>
+  <si>
+    <t>AbsenceOfP</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Parallel C</t>
+  </si>
+  <si>
+    <t>Number of Propositions</t>
+  </si>
+  <si>
+    <t>1. Based on the Scope and Pattern we have AbsenceOfPGlobal</t>
+  </si>
+  <si>
+    <t>2. look on the Scopes and Patterns tab and find the AbsenseOfPGlobal template</t>
+  </si>
+  <si>
+    <t>4. Our P will become what Parallel C is in Table one</t>
+  </si>
+  <si>
+    <t>6. We have two Propositions so step 5 becomes p1 &amp; p2</t>
+  </si>
+  <si>
+    <t>7. Replace the P in step 3 with what we created in step 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final answer is G!(p1 &amp; p2) </t>
+  </si>
+  <si>
+    <t>Q Response to P</t>
+  </si>
+  <si>
+    <t>Q_Parallel C</t>
+  </si>
+  <si>
+    <t>P_AtLeastOneC</t>
+  </si>
+  <si>
+    <t>Based on the pattern and scope we have QRespondsToPGlobal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That template is </t>
+  </si>
+  <si>
+    <t>P is AtLeastOneC:</t>
+  </si>
+  <si>
+    <t>p1 &amp; … &amp; pn</t>
+  </si>
+  <si>
+    <t>Q is Parallel C</t>
+  </si>
+  <si>
+    <t>p1 | … | pn</t>
+  </si>
+  <si>
+    <t>We have 3 propositions, so P and Q become:</t>
+  </si>
+  <si>
+    <t>p1 | p2| p3</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>q1 &amp; q2 &amp; q3</t>
+  </si>
+  <si>
+    <t>Substitute the Ps:</t>
+  </si>
+  <si>
+    <t>G((p1 | p2| p3) -&gt; ((p1 | p2| p3) &amp;l F Q))</t>
+  </si>
+  <si>
+    <t>Substitute the Qs:</t>
+  </si>
+  <si>
+    <t>G((p1 | p2| p3) -&gt; ((p1 | p2| p3) &amp;l F (q1 &amp; q2 &amp; q3)))</t>
+  </si>
+  <si>
+    <t>And then we have to get rid of the &amp;l, but I don't know that logic yet.</t>
+  </si>
+  <si>
+    <t>Return the completed LTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. ParallelC is: </t>
+  </si>
+  <si>
+    <t>3. We have:</t>
   </si>
 </sst>
 </file>
@@ -757,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -835,6 +935,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,7 +1223,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89:I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1793,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1762,7 +1866,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1794,7 +1898,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1807,14 +1911,14 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1846,14 +1950,14 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
@@ -1865,7 +1969,7 @@
         <v>74</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1918,14 +2022,14 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1933,7 +2037,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
@@ -1970,14 +2074,14 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1985,7 +2089,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -2022,7 +2126,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
@@ -2039,7 +2143,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -2067,7 +2171,7 @@
         <v>72</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2094,14 +2198,14 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -2109,7 +2213,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2146,14 +2250,14 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -2196,7 +2300,7 @@
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -2213,7 +2317,7 @@
         <v>74</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -2228,7 +2332,7 @@
         <v>73</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
@@ -2268,7 +2372,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2305,7 +2409,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2353,7 +2457,7 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
@@ -2370,7 +2474,7 @@
         <v>74</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -2385,7 +2489,7 @@
         <v>73</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
@@ -2425,7 +2529,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2462,7 +2566,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2510,7 +2614,7 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
@@ -2527,7 +2631,7 @@
         <v>74</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -2542,7 +2646,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
@@ -2582,7 +2686,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -2619,7 +2723,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -2656,7 +2760,7 @@
     </row>
     <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
@@ -2673,7 +2777,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -2726,14 +2830,14 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -2765,26 +2869,30 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
+      <c r="A89" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
+      <c r="F89" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="12"/>
@@ -2804,7 +2912,7 @@
     </row>
     <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -2821,7 +2929,7 @@
         <v>74</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -2849,7 +2957,7 @@
         <v>72</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -2876,7 +2984,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -2889,14 +2997,14 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -2904,14 +3012,14 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -2943,14 +3051,14 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -2958,14 +3066,14 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -2997,7 +3105,7 @@
     </row>
     <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="24"/>
@@ -3014,7 +3122,7 @@
         <v>74</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -3029,7 +3137,7 @@
         <v>73</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
@@ -3069,7 +3177,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3106,7 +3214,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -3158,7 +3266,7 @@
         <v>74</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -3173,7 +3281,7 @@
         <v>73</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
@@ -3213,7 +3321,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -3250,7 +3358,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -3302,7 +3410,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -3317,7 +3425,7 @@
         <v>73</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C133" s="21"/>
       <c r="D133" s="21"/>
@@ -3357,7 +3465,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -3394,7 +3502,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -3446,7 +3554,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
@@ -3461,7 +3569,7 @@
         <v>73</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
@@ -3501,7 +3609,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -3538,7 +3646,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -3590,7 +3698,7 @@
         <v>74</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -3605,7 +3713,7 @@
         <v>73</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C157" s="21"/>
       <c r="D157" s="21"/>
@@ -3645,7 +3753,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -3682,7 +3790,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -3734,7 +3842,7 @@
         <v>74</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
@@ -3749,7 +3857,7 @@
         <v>73</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C169" s="21"/>
       <c r="D169" s="21"/>
@@ -3789,7 +3897,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -3826,7 +3934,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -3878,7 +3986,7 @@
         <v>74</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
@@ -3893,7 +4001,7 @@
         <v>73</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C181" s="21"/>
       <c r="D181" s="21"/>
@@ -3933,7 +4041,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -3970,7 +4078,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -4022,7 +4130,7 @@
         <v>74</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
@@ -4037,7 +4145,7 @@
         <v>73</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C193" s="21"/>
       <c r="D193" s="21"/>
@@ -4077,7 +4185,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -4114,7 +4222,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -4166,7 +4274,7 @@
         <v>74</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C204" s="17"/>
       <c r="D204" s="17"/>
@@ -4181,7 +4289,7 @@
         <v>73</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C205" s="21"/>
       <c r="D205" s="21"/>
@@ -4221,7 +4329,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -4258,7 +4366,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -4310,7 +4418,7 @@
         <v>74</v>
       </c>
       <c r="B216" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C216" s="17"/>
       <c r="D216" s="17"/>
@@ -4325,7 +4433,7 @@
         <v>73</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C217" s="21"/>
       <c r="D217" s="21"/>
@@ -4365,7 +4473,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -4402,7 +4510,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -4454,7 +4562,7 @@
         <v>74</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
@@ -4469,7 +4577,7 @@
         <v>73</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C229" s="21"/>
       <c r="D229" s="21"/>
@@ -4509,7 +4617,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -4546,7 +4654,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -4598,7 +4706,7 @@
         <v>74</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C240" s="17"/>
       <c r="D240" s="17"/>
@@ -4613,7 +4721,7 @@
         <v>73</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C241" s="21"/>
       <c r="D241" s="21"/>
@@ -4653,7 +4761,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -4690,7 +4798,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -4742,7 +4850,7 @@
         <v>74</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C252" s="17"/>
       <c r="D252" s="17"/>
@@ -4757,7 +4865,7 @@
         <v>73</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C253" s="21"/>
       <c r="D253" s="21"/>
@@ -4797,7 +4905,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -4834,7 +4942,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -4886,7 +4994,7 @@
         <v>74</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C264" s="17"/>
       <c r="D264" s="17"/>
@@ -4901,7 +5009,7 @@
         <v>73</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C265" s="21"/>
       <c r="D265" s="21"/>
@@ -4941,7 +5049,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -4978,7 +5086,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -5030,7 +5138,7 @@
         <v>74</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C276" s="17"/>
       <c r="D276" s="17"/>
@@ -5045,7 +5153,7 @@
         <v>73</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C277" s="21"/>
       <c r="D277" s="21"/>
@@ -5085,7 +5193,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -5122,7 +5230,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -5174,7 +5282,7 @@
         <v>74</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C288" s="17"/>
       <c r="D288" s="17"/>
@@ -5189,7 +5297,7 @@
         <v>73</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C289" s="21"/>
       <c r="D289" s="21"/>
@@ -5229,7 +5337,7 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
@@ -5266,7 +5374,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
@@ -5318,7 +5426,7 @@
         <v>74</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C300" s="17"/>
       <c r="D300" s="17"/>
@@ -5333,7 +5441,7 @@
         <v>73</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C301" s="21"/>
       <c r="D301" s="21"/>
@@ -5373,7 +5481,7 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
@@ -5410,7 +5518,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
@@ -5462,7 +5570,7 @@
         <v>74</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C312" s="17"/>
       <c r="D312" s="17"/>
@@ -5477,7 +5585,7 @@
         <v>73</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C313" s="21"/>
       <c r="D313" s="21"/>
@@ -5517,7 +5625,7 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
@@ -5554,7 +5662,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
@@ -5606,7 +5714,7 @@
         <v>74</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C324" s="17"/>
       <c r="D324" s="17"/>
@@ -5621,7 +5729,7 @@
         <v>73</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C325" s="21"/>
       <c r="D325" s="21"/>
@@ -5661,7 +5769,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
@@ -5698,7 +5806,7 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
@@ -5750,7 +5858,7 @@
         <v>74</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C336" s="17"/>
       <c r="D336" s="17"/>
@@ -5765,7 +5873,7 @@
         <v>73</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C337" s="21"/>
       <c r="D337" s="21"/>
@@ -5805,7 +5913,7 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
@@ -5842,7 +5950,7 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
@@ -5894,7 +6002,7 @@
         <v>74</v>
       </c>
       <c r="B348" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C348" s="17"/>
       <c r="D348" s="17"/>
@@ -5909,7 +6017,7 @@
         <v>73</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C349" s="21"/>
       <c r="D349" s="21"/>
@@ -5949,7 +6057,7 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
@@ -5986,7 +6094,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B355" s="11"/>
       <c r="C355" s="11"/>
@@ -6038,7 +6146,7 @@
         <v>74</v>
       </c>
       <c r="B360" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C360" s="17"/>
       <c r="D360" s="17"/>
@@ -6053,7 +6161,7 @@
         <v>73</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C361" s="21"/>
       <c r="D361" s="21"/>
@@ -6093,7 +6201,7 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
@@ -6130,7 +6238,7 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
@@ -6182,7 +6290,7 @@
         <v>74</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C372" s="17"/>
       <c r="D372" s="17"/>
@@ -6197,7 +6305,7 @@
         <v>73</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C373" s="21"/>
       <c r="D373" s="21"/>
@@ -6237,7 +6345,7 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
@@ -6274,7 +6382,7 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -6326,7 +6434,7 @@
         <v>74</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C384" s="17"/>
       <c r="D384" s="17"/>
@@ -6341,7 +6449,7 @@
         <v>73</v>
       </c>
       <c r="B385" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
@@ -6381,7 +6489,7 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
@@ -6418,7 +6526,7 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
@@ -6470,7 +6578,7 @@
         <v>74</v>
       </c>
       <c r="B396" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C396" s="17"/>
       <c r="D396" s="17"/>
@@ -6485,7 +6593,7 @@
         <v>73</v>
       </c>
       <c r="B397" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C397" s="21"/>
       <c r="D397" s="21"/>
@@ -6525,7 +6633,7 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
@@ -6562,7 +6670,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
@@ -6614,7 +6722,7 @@
         <v>74</v>
       </c>
       <c r="B408" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C408" s="17"/>
       <c r="D408" s="17"/>
@@ -6629,7 +6737,7 @@
         <v>73</v>
       </c>
       <c r="B409" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C409" s="21"/>
       <c r="D409" s="21"/>
@@ -6669,7 +6777,7 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
@@ -6706,7 +6814,7 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
@@ -6758,7 +6866,7 @@
         <v>74</v>
       </c>
       <c r="B420" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C420" s="17"/>
       <c r="D420" s="17"/>
@@ -6773,7 +6881,7 @@
         <v>73</v>
       </c>
       <c r="B421" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C421" s="21"/>
       <c r="D421" s="21"/>
@@ -6813,7 +6921,7 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
@@ -6850,7 +6958,7 @@
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
@@ -6902,7 +7010,7 @@
         <v>74</v>
       </c>
       <c r="B432" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C432" s="17"/>
       <c r="D432" s="17"/>
@@ -6917,7 +7025,7 @@
         <v>73</v>
       </c>
       <c r="B433" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C433" s="21"/>
       <c r="D433" s="21"/>
@@ -6957,7 +7065,7 @@
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B436" s="11"/>
       <c r="C436" s="11"/>
@@ -6994,7 +7102,7 @@
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B439" s="11"/>
       <c r="C439" s="11"/>
@@ -7046,7 +7154,7 @@
         <v>74</v>
       </c>
       <c r="B444" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C444" s="17"/>
       <c r="D444" s="17"/>
@@ -7061,7 +7169,7 @@
         <v>73</v>
       </c>
       <c r="B445" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C445" s="21"/>
       <c r="D445" s="21"/>
@@ -7101,7 +7209,7 @@
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B448" s="11"/>
       <c r="C448" s="11"/>
@@ -7138,7 +7246,7 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B451" s="11"/>
       <c r="C451" s="11"/>
@@ -7190,7 +7298,7 @@
         <v>74</v>
       </c>
       <c r="B456" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C456" s="17"/>
       <c r="D456" s="17"/>
@@ -7205,7 +7313,7 @@
         <v>73</v>
       </c>
       <c r="B457" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C457" s="21"/>
       <c r="D457" s="21"/>
@@ -7245,7 +7353,7 @@
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B460" s="11"/>
       <c r="C460" s="11"/>
@@ -7282,7 +7390,7 @@
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B463" s="11"/>
       <c r="C463" s="11"/>
@@ -7334,7 +7442,7 @@
         <v>74</v>
       </c>
       <c r="B468" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C468" s="17"/>
       <c r="D468" s="17"/>
@@ -7349,7 +7457,7 @@
         <v>73</v>
       </c>
       <c r="B469" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C469" s="21"/>
       <c r="D469" s="21"/>
@@ -7389,7 +7497,7 @@
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
@@ -7426,7 +7534,7 @@
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
@@ -7478,7 +7586,7 @@
         <v>74</v>
       </c>
       <c r="B480" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C480" s="17"/>
       <c r="D480" s="17"/>
@@ -7493,7 +7601,7 @@
         <v>73</v>
       </c>
       <c r="B481" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C481" s="21"/>
       <c r="D481" s="21"/>
@@ -7533,7 +7641,7 @@
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B484" s="11"/>
       <c r="C484" s="11"/>
@@ -7570,7 +7678,7 @@
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B487" s="11"/>
       <c r="C487" s="11"/>
@@ -7622,7 +7730,7 @@
         <v>74</v>
       </c>
       <c r="B492" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C492" s="17"/>
       <c r="D492" s="17"/>
@@ -7637,7 +7745,7 @@
         <v>73</v>
       </c>
       <c r="B493" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C493" s="21"/>
       <c r="D493" s="21"/>
@@ -7677,7 +7785,7 @@
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B496" s="11"/>
       <c r="C496" s="11"/>
@@ -7714,7 +7822,7 @@
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B499" s="11"/>
       <c r="C499" s="11"/>
@@ -7766,7 +7874,7 @@
         <v>74</v>
       </c>
       <c r="B504" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C504" s="17"/>
       <c r="D504" s="17"/>
@@ -7781,7 +7889,7 @@
         <v>73</v>
       </c>
       <c r="B505" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C505" s="21"/>
       <c r="D505" s="21"/>
@@ -7821,7 +7929,7 @@
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B508" s="11"/>
       <c r="C508" s="11"/>
@@ -7858,7 +7966,7 @@
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B511" s="11"/>
       <c r="C511" s="11"/>
@@ -7910,7 +8018,7 @@
         <v>74</v>
       </c>
       <c r="B516" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C516" s="17"/>
       <c r="D516" s="17"/>
@@ -7925,7 +8033,7 @@
         <v>73</v>
       </c>
       <c r="B517" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C517" s="21"/>
       <c r="D517" s="21"/>
@@ -7965,7 +8073,7 @@
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B520" s="11"/>
       <c r="C520" s="11"/>
@@ -8002,7 +8110,7 @@
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B523" s="11"/>
       <c r="C523" s="11"/>
@@ -8054,7 +8162,7 @@
         <v>74</v>
       </c>
       <c r="B528" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C528" s="17"/>
       <c r="D528" s="17"/>
@@ -8069,7 +8177,7 @@
         <v>73</v>
       </c>
       <c r="B529" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C529" s="21"/>
       <c r="D529" s="21"/>
@@ -8109,7 +8217,7 @@
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B532" s="11"/>
       <c r="C532" s="11"/>
@@ -8146,7 +8254,7 @@
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B535" s="11"/>
       <c r="C535" s="11"/>
@@ -8198,7 +8306,7 @@
         <v>74</v>
       </c>
       <c r="B540" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C540" s="17"/>
       <c r="D540" s="17"/>
@@ -8213,7 +8321,7 @@
         <v>73</v>
       </c>
       <c r="B541" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C541" s="21"/>
       <c r="D541" s="21"/>
@@ -8253,7 +8361,7 @@
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B544" s="11"/>
       <c r="C544" s="11"/>
@@ -8290,7 +8398,7 @@
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B547" s="11"/>
       <c r="C547" s="11"/>
@@ -8342,7 +8450,7 @@
         <v>74</v>
       </c>
       <c r="B552" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C552" s="17"/>
       <c r="D552" s="17"/>
@@ -8357,7 +8465,7 @@
         <v>73</v>
       </c>
       <c r="B553" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C553" s="21"/>
       <c r="D553" s="21"/>
@@ -8397,7 +8505,7 @@
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B556" s="11"/>
       <c r="C556" s="11"/>
@@ -8434,7 +8542,7 @@
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B559" s="11"/>
       <c r="C559" s="11"/>
@@ -8486,7 +8594,7 @@
         <v>74</v>
       </c>
       <c r="B564" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C564" s="17"/>
       <c r="D564" s="17"/>
@@ -8501,7 +8609,7 @@
         <v>73</v>
       </c>
       <c r="B565" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C565" s="21"/>
       <c r="D565" s="21"/>
@@ -8541,7 +8649,7 @@
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B568" s="11"/>
       <c r="C568" s="11"/>
@@ -8578,7 +8686,7 @@
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B571" s="11"/>
       <c r="C571" s="11"/>
@@ -8630,7 +8738,7 @@
         <v>74</v>
       </c>
       <c r="B576" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C576" s="17"/>
       <c r="D576" s="17"/>
@@ -8645,7 +8753,7 @@
         <v>73</v>
       </c>
       <c r="B577" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C577" s="21"/>
       <c r="D577" s="21"/>
@@ -8685,7 +8793,7 @@
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B580" s="11"/>
       <c r="C580" s="11"/>
@@ -8722,7 +8830,7 @@
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B583" s="11"/>
       <c r="C583" s="11"/>
@@ -8774,7 +8882,7 @@
         <v>74</v>
       </c>
       <c r="B588" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C588" s="17"/>
       <c r="D588" s="17"/>
@@ -8789,7 +8897,7 @@
         <v>73</v>
       </c>
       <c r="B589" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C589" s="21"/>
       <c r="D589" s="21"/>
@@ -8829,7 +8937,7 @@
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B592" s="11"/>
       <c r="C592" s="11"/>
@@ -8866,7 +8974,7 @@
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B595" s="11"/>
       <c r="C595" s="11"/>
@@ -8918,7 +9026,7 @@
         <v>74</v>
       </c>
       <c r="B600" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C600" s="17"/>
       <c r="D600" s="17"/>
@@ -8933,7 +9041,7 @@
         <v>73</v>
       </c>
       <c r="B601" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C601" s="21"/>
       <c r="D601" s="21"/>
@@ -8973,7 +9081,7 @@
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B604" s="11"/>
       <c r="C604" s="11"/>
@@ -9010,7 +9118,7 @@
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B607" s="11"/>
       <c r="C607" s="11"/>
@@ -9062,7 +9170,7 @@
         <v>74</v>
       </c>
       <c r="B612" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C612" s="17"/>
       <c r="D612" s="17"/>
@@ -9077,7 +9185,7 @@
         <v>73</v>
       </c>
       <c r="B613" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C613" s="21"/>
       <c r="D613" s="21"/>
@@ -9117,7 +9225,7 @@
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B616" s="11"/>
       <c r="C616" s="11"/>
@@ -9154,7 +9262,7 @@
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B619" s="11"/>
       <c r="C619" s="11"/>
@@ -9206,7 +9314,7 @@
         <v>74</v>
       </c>
       <c r="B624" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C624" s="17"/>
       <c r="D624" s="17"/>
@@ -9221,7 +9329,7 @@
         <v>73</v>
       </c>
       <c r="B625" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C625" s="21"/>
       <c r="D625" s="21"/>
@@ -9261,7 +9369,7 @@
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B628" s="11"/>
       <c r="C628" s="11"/>
@@ -9298,7 +9406,7 @@
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B631" s="11"/>
       <c r="C631" s="11"/>
@@ -9350,7 +9458,7 @@
         <v>74</v>
       </c>
       <c r="B636" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C636" s="17"/>
       <c r="D636" s="17"/>
@@ -9365,7 +9473,7 @@
         <v>73</v>
       </c>
       <c r="B637" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C637" s="21"/>
       <c r="D637" s="21"/>
@@ -9405,7 +9513,7 @@
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B640" s="11"/>
       <c r="C640" s="11"/>
@@ -9442,7 +9550,7 @@
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
@@ -9494,7 +9602,7 @@
         <v>74</v>
       </c>
       <c r="B648" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C648" s="17"/>
       <c r="D648" s="17"/>
@@ -9509,7 +9617,7 @@
         <v>73</v>
       </c>
       <c r="B649" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C649" s="21"/>
       <c r="D649" s="21"/>
@@ -9549,7 +9657,7 @@
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B652" s="11"/>
       <c r="C652" s="11"/>
@@ -9586,7 +9694,7 @@
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B655" s="11"/>
       <c r="C655" s="11"/>
@@ -9638,7 +9746,7 @@
         <v>74</v>
       </c>
       <c r="B660" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C660" s="17"/>
       <c r="D660" s="17"/>
@@ -9653,7 +9761,7 @@
         <v>73</v>
       </c>
       <c r="B661" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C661" s="21"/>
       <c r="D661" s="21"/>
@@ -9693,7 +9801,7 @@
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B664" s="11"/>
       <c r="C664" s="11"/>
@@ -9730,7 +9838,7 @@
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B667" s="11"/>
       <c r="C667" s="11"/>
@@ -9782,7 +9890,7 @@
         <v>74</v>
       </c>
       <c r="B672" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C672" s="17"/>
       <c r="D672" s="17"/>
@@ -9797,7 +9905,7 @@
         <v>73</v>
       </c>
       <c r="B673" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C673" s="21"/>
       <c r="D673" s="21"/>
@@ -9837,7 +9945,7 @@
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
@@ -9874,7 +9982,7 @@
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B679" s="11"/>
       <c r="C679" s="11"/>
@@ -9926,7 +10034,7 @@
         <v>74</v>
       </c>
       <c r="B684" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C684" s="17"/>
       <c r="D684" s="17"/>
@@ -9941,7 +10049,7 @@
         <v>73</v>
       </c>
       <c r="B685" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C685" s="21"/>
       <c r="D685" s="21"/>
@@ -9981,7 +10089,7 @@
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B688" s="11"/>
       <c r="C688" s="11"/>
@@ -10018,7 +10126,7 @@
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B691" s="11"/>
       <c r="C691" s="11"/>
@@ -10070,7 +10178,7 @@
         <v>74</v>
       </c>
       <c r="B696" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C696" s="17"/>
       <c r="D696" s="17"/>
@@ -10085,7 +10193,7 @@
         <v>73</v>
       </c>
       <c r="B697" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C697" s="21"/>
       <c r="D697" s="21"/>
@@ -10125,7 +10233,7 @@
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B700" s="11"/>
       <c r="C700" s="11"/>
@@ -10162,7 +10270,7 @@
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B703" s="11"/>
       <c r="C703" s="11"/>
@@ -10214,7 +10322,7 @@
         <v>74</v>
       </c>
       <c r="B708" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C708" s="17"/>
       <c r="D708" s="17"/>
@@ -10229,7 +10337,7 @@
         <v>73</v>
       </c>
       <c r="B709" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C709" s="21"/>
       <c r="D709" s="21"/>
@@ -10269,7 +10377,7 @@
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B712" s="11"/>
       <c r="C712" s="11"/>
@@ -10306,7 +10414,7 @@
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B715" s="11"/>
       <c r="C715" s="11"/>
@@ -10358,7 +10466,7 @@
         <v>74</v>
       </c>
       <c r="B720" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C720" s="17"/>
       <c r="D720" s="17"/>
@@ -10373,7 +10481,7 @@
         <v>73</v>
       </c>
       <c r="B721" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C721" s="21"/>
       <c r="D721" s="21"/>
@@ -10413,7 +10521,7 @@
     </row>
     <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B724" s="11"/>
       <c r="C724" s="11"/>
@@ -10450,7 +10558,7 @@
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B727" s="11"/>
       <c r="C727" s="11"/>
@@ -10502,7 +10610,7 @@
         <v>74</v>
       </c>
       <c r="B732" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C732" s="17"/>
       <c r="D732" s="17"/>
@@ -10517,7 +10625,7 @@
         <v>73</v>
       </c>
       <c r="B733" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C733" s="21"/>
       <c r="D733" s="21"/>
@@ -10557,7 +10665,7 @@
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B736" s="11"/>
       <c r="C736" s="11"/>
@@ -10594,7 +10702,7 @@
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B739" s="11"/>
       <c r="C739" s="11"/>
@@ -10646,7 +10754,7 @@
         <v>74</v>
       </c>
       <c r="B744" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C744" s="17"/>
       <c r="D744" s="17"/>
@@ -10661,7 +10769,7 @@
         <v>73</v>
       </c>
       <c r="B745" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C745" s="21"/>
       <c r="D745" s="21"/>
@@ -10701,7 +10809,7 @@
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B748" s="11"/>
       <c r="C748" s="11"/>
@@ -10738,7 +10846,7 @@
     </row>
     <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B751" s="11"/>
       <c r="C751" s="11"/>
@@ -10790,7 +10898,7 @@
         <v>74</v>
       </c>
       <c r="B756" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C756" s="17"/>
       <c r="D756" s="17"/>
@@ -10805,7 +10913,7 @@
         <v>73</v>
       </c>
       <c r="B757" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C757" s="21"/>
       <c r="D757" s="21"/>
@@ -10845,7 +10953,7 @@
     </row>
     <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B760" s="11"/>
       <c r="C760" s="11"/>
@@ -10882,7 +10990,7 @@
     </row>
     <row r="763" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A763" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B763" s="11"/>
       <c r="C763" s="11"/>
@@ -10934,7 +11042,7 @@
         <v>74</v>
       </c>
       <c r="B768" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C768" s="17"/>
       <c r="D768" s="17"/>
@@ -10949,7 +11057,7 @@
         <v>73</v>
       </c>
       <c r="B769" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C769" s="21"/>
       <c r="D769" s="21"/>
@@ -10989,7 +11097,7 @@
     </row>
     <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B772" s="11"/>
       <c r="C772" s="11"/>
@@ -11026,7 +11134,7 @@
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B775" s="11"/>
       <c r="C775" s="11"/>
@@ -11078,7 +11186,7 @@
         <v>74</v>
       </c>
       <c r="B780" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C780" s="17"/>
       <c r="D780" s="17"/>
@@ -11093,7 +11201,7 @@
         <v>73</v>
       </c>
       <c r="B781" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C781" s="21"/>
       <c r="D781" s="21"/>
@@ -11133,7 +11241,7 @@
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B784" s="11"/>
       <c r="C784" s="11"/>
@@ -11170,7 +11278,7 @@
     </row>
     <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B787" s="11"/>
       <c r="C787" s="11"/>
@@ -11222,7 +11330,7 @@
         <v>74</v>
       </c>
       <c r="B792" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C792" s="17"/>
       <c r="D792" s="17"/>
@@ -11237,7 +11345,7 @@
         <v>73</v>
       </c>
       <c r="B793" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C793" s="21"/>
       <c r="D793" s="21"/>
@@ -11277,7 +11385,7 @@
     </row>
     <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B796" s="11"/>
       <c r="C796" s="11"/>
@@ -11314,7 +11422,7 @@
     </row>
     <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B799" s="11"/>
       <c r="C799" s="11"/>
@@ -12527,4 +12635,211 @@
     <brk id="755" max="8" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/CRC and Diagram/CRC Cards.xlsx
+++ b/documents/CRC and Diagram/CRC Cards.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="303">
   <si>
     <t>Global</t>
   </si>
@@ -7832,146 +7832,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>) U (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a2 &amp; !a3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp; P)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &amp; (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!a3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &amp; P)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> U a3))))</t>
-    </r>
-  </si>
-  <si>
-    <t>What I think</t>
-  </si>
-  <si>
-    <t>What Omar thinks</t>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a1 &amp; !a2 &amp; !a3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp; P)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &amp; ((!a2 &amp; !a3)          U (</t>
     </r>
     <r>
       <rPr>
@@ -20946,19 +20806,11 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="B31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="B32" t="s">
-        <v>303</v>
-      </c>
+      <c r="A32" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
